--- a/document/WBS予定表（AP向け）.xlsx
+++ b/document/WBS予定表（AP向け）.xlsx
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="281">
   <si>
     <t>NO.</t>
   </si>
@@ -2108,12 +2108,6 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2137,6 +2131,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -2177,7 +2177,147 @@
     <cellStyle name="桁区切り 2 2" xfId="35"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2230,13 +2370,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2697,10 +2830,10 @@
   <dimension ref="A1:AE260"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="99" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="R188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="T216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB208" sqref="AB208"/>
+      <selection pane="bottomRight" activeCell="AA248" sqref="AA248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2747,61 +2880,61 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="18" customHeight="1">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="115" t="s">
+      <c r="O3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="116" t="s">
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="116" t="s">
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="118"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="116"/>
     </row>
     <row r="4" spans="2:31" ht="25.5">
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="109"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
@@ -17000,7 +17133,7 @@
       <c r="M198" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N198" s="111" t="s">
+      <c r="N198" s="109" t="s">
         <v>205</v>
       </c>
       <c r="O198" s="45">
@@ -17075,7 +17208,7 @@
       <c r="M199" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N199" s="112"/>
+      <c r="N199" s="110"/>
       <c r="O199" s="45">
         <v>43249</v>
       </c>
@@ -17148,7 +17281,7 @@
       <c r="M200" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N200" s="112"/>
+      <c r="N200" s="110"/>
       <c r="O200" s="45">
         <v>43249</v>
       </c>
@@ -17221,7 +17354,7 @@
       <c r="M201" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N201" s="112"/>
+      <c r="N201" s="110"/>
       <c r="O201" s="45">
         <v>43249</v>
       </c>
@@ -17294,7 +17427,7 @@
       <c r="M202" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N202" s="112"/>
+      <c r="N202" s="110"/>
       <c r="O202" s="45">
         <v>43249</v>
       </c>
@@ -17371,7 +17504,7 @@
       <c r="M203" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N203" s="112"/>
+      <c r="N203" s="110"/>
       <c r="O203" s="45">
         <v>43249</v>
       </c>
@@ -17444,7 +17577,7 @@
       <c r="M204" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N204" s="112"/>
+      <c r="N204" s="110"/>
       <c r="O204" s="45">
         <v>43249</v>
       </c>
@@ -17517,7 +17650,7 @@
       <c r="M205" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N205" s="112"/>
+      <c r="N205" s="110"/>
       <c r="O205" s="45">
         <v>43249</v>
       </c>
@@ -17590,7 +17723,7 @@
       <c r="M206" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N206" s="112"/>
+      <c r="N206" s="110"/>
       <c r="O206" s="45">
         <v>43249</v>
       </c>
@@ -17665,7 +17798,7 @@
       <c r="M207" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N207" s="112"/>
+      <c r="N207" s="110"/>
       <c r="O207" s="45">
         <v>43249</v>
       </c>
@@ -17740,7 +17873,7 @@
       <c r="M208" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N208" s="112"/>
+      <c r="N208" s="110"/>
       <c r="O208" s="45">
         <v>43249</v>
       </c>
@@ -17813,7 +17946,7 @@
       <c r="M209" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N209" s="112"/>
+      <c r="N209" s="110"/>
       <c r="O209" s="31">
         <v>43256</v>
       </c>
@@ -17870,7 +18003,7 @@
       <c r="M210" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N210" s="112"/>
+      <c r="N210" s="110"/>
       <c r="O210" s="31">
         <v>43256</v>
       </c>
@@ -17915,7 +18048,7 @@
       <c r="K211" s="61"/>
       <c r="L211" s="61"/>
       <c r="M211" s="56"/>
-      <c r="N211" s="112"/>
+      <c r="N211" s="110"/>
       <c r="O211" s="31"/>
       <c r="P211" s="31"/>
       <c r="Q211" s="48"/>
@@ -17958,7 +18091,7 @@
       <c r="M212" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N212" s="112"/>
+      <c r="N212" s="110"/>
       <c r="O212" s="31">
         <v>43207</v>
       </c>
@@ -18015,7 +18148,7 @@
       <c r="M213" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="N213" s="112"/>
+      <c r="N213" s="110"/>
       <c r="O213" s="31">
         <v>43256</v>
       </c>
@@ -18072,7 +18205,7 @@
       <c r="M214" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N214" s="113"/>
+      <c r="N214" s="111"/>
       <c r="O214" s="31">
         <v>43256</v>
       </c>
@@ -18222,12 +18355,24 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
-      <c r="Z216" s="24"/>
-      <c r="AA216" s="24"/>
-      <c r="AB216" s="24"/>
-      <c r="AC216" s="3"/>
-      <c r="AD216" s="3"/>
-      <c r="AE216" s="3"/>
+      <c r="Z216" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA216" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB216" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC216" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD216" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE216" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="217" spans="2:31">
       <c r="B217" s="14">
@@ -18281,12 +18426,24 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
-      <c r="Z217" s="24"/>
-      <c r="AA217" s="24"/>
-      <c r="AB217" s="24"/>
-      <c r="AC217" s="3"/>
-      <c r="AD217" s="3"/>
-      <c r="AE217" s="3"/>
+      <c r="Z217" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA217" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB217" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC217" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD217" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE217" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="218" spans="2:31">
       <c r="B218" s="14">
@@ -18340,12 +18497,24 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
-      <c r="Z218" s="24"/>
-      <c r="AA218" s="24"/>
-      <c r="AB218" s="24"/>
-      <c r="AC218" s="3"/>
-      <c r="AD218" s="3"/>
-      <c r="AE218" s="3"/>
+      <c r="Z218" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA218" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB218" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC218" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD218" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE218" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="219" spans="2:31">
       <c r="B219" s="14">
@@ -18395,12 +18564,24 @@
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
-      <c r="Z219" s="24"/>
-      <c r="AA219" s="24"/>
-      <c r="AB219" s="24"/>
-      <c r="AC219" s="3"/>
-      <c r="AD219" s="3"/>
-      <c r="AE219" s="3"/>
+      <c r="Z219" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA219" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB219" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC219" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD219" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE219" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="220" spans="2:31">
       <c r="B220" s="14">
@@ -18450,12 +18631,24 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
-      <c r="Z220" s="24"/>
-      <c r="AA220" s="24"/>
-      <c r="AB220" s="24"/>
-      <c r="AC220" s="3"/>
-      <c r="AD220" s="3"/>
-      <c r="AE220" s="3"/>
+      <c r="Z220" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA220" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB220" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC220" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD220" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE220" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="221" spans="2:31">
       <c r="B221" s="14">
@@ -18505,12 +18698,24 @@
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
-      <c r="Z221" s="24"/>
-      <c r="AA221" s="24"/>
-      <c r="AB221" s="24"/>
-      <c r="AC221" s="3"/>
-      <c r="AD221" s="3"/>
-      <c r="AE221" s="3"/>
+      <c r="Z221" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA221" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB221" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC221" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD221" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE221" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="222" spans="2:31">
       <c r="B222" s="14">
@@ -18564,12 +18769,24 @@
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
-      <c r="Z222" s="24"/>
-      <c r="AA222" s="24"/>
-      <c r="AB222" s="24"/>
-      <c r="AC222" s="3"/>
-      <c r="AD222" s="3"/>
-      <c r="AE222" s="3"/>
+      <c r="Z222" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA222" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB222" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC222" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD222" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE222" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="223" spans="2:31">
       <c r="B223" s="14">
@@ -18619,12 +18836,24 @@
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
-      <c r="Z223" s="24"/>
-      <c r="AA223" s="24"/>
-      <c r="AB223" s="24"/>
-      <c r="AC223" s="3"/>
-      <c r="AD223" s="3"/>
-      <c r="AE223" s="3"/>
+      <c r="Z223" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA223" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB223" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC223" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD223" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE223" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="224" spans="2:31">
       <c r="B224" s="14">
@@ -18678,12 +18907,24 @@
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
-      <c r="Z224" s="24"/>
-      <c r="AA224" s="24"/>
-      <c r="AB224" s="24"/>
-      <c r="AC224" s="3"/>
-      <c r="AD224" s="3"/>
-      <c r="AE224" s="3"/>
+      <c r="Z224" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA224" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB224" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC224" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD224" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE224" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="225" spans="2:31">
       <c r="B225" s="14">
@@ -18733,12 +18974,24 @@
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
-      <c r="Z225" s="24"/>
-      <c r="AA225" s="24"/>
-      <c r="AB225" s="24"/>
-      <c r="AC225" s="3"/>
-      <c r="AD225" s="3"/>
-      <c r="AE225" s="3"/>
+      <c r="Z225" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA225" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB225" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC225" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD225" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE225" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="226" spans="2:31">
       <c r="B226" s="14">
@@ -18788,12 +19041,24 @@
       <c r="W226" s="3"/>
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
-      <c r="Z226" s="24"/>
-      <c r="AA226" s="24"/>
-      <c r="AB226" s="24"/>
-      <c r="AC226" s="3"/>
-      <c r="AD226" s="3"/>
-      <c r="AE226" s="3"/>
+      <c r="Z226" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA226" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB226" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC226" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD226" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE226" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="227" spans="2:31">
       <c r="B227" s="14">
@@ -18847,12 +19112,24 @@
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
-      <c r="Z227" s="24"/>
-      <c r="AA227" s="24"/>
-      <c r="AB227" s="24"/>
-      <c r="AC227" s="3"/>
-      <c r="AD227" s="3"/>
-      <c r="AE227" s="3"/>
+      <c r="Z227" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA227" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB227" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC227" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD227" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE227" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="228" spans="2:31">
       <c r="B228" s="14">
@@ -18902,12 +19179,24 @@
       <c r="W228" s="3"/>
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
-      <c r="Z228" s="24"/>
-      <c r="AA228" s="24"/>
-      <c r="AB228" s="24"/>
-      <c r="AC228" s="3"/>
-      <c r="AD228" s="3"/>
-      <c r="AE228" s="3"/>
+      <c r="Z228" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA228" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB228" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC228" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD228" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE228" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="229" spans="2:31">
       <c r="B229" s="14">
@@ -18961,12 +19250,24 @@
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
-      <c r="Z229" s="24"/>
-      <c r="AA229" s="24"/>
-      <c r="AB229" s="24"/>
-      <c r="AC229" s="3"/>
-      <c r="AD229" s="3"/>
-      <c r="AE229" s="3"/>
+      <c r="Z229" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA229" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB229" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC229" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD229" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE229" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="2:31">
       <c r="B230" s="14">
@@ -19016,12 +19317,24 @@
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
-      <c r="Z230" s="24"/>
-      <c r="AA230" s="24"/>
-      <c r="AB230" s="24"/>
-      <c r="AC230" s="3"/>
-      <c r="AD230" s="3"/>
-      <c r="AE230" s="3"/>
+      <c r="Z230" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA230" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB230" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC230" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD230" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE230" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="231" spans="2:31">
       <c r="B231" s="29">
@@ -19157,12 +19470,24 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
-      <c r="Z233" s="24"/>
-      <c r="AA233" s="24"/>
-      <c r="AB233" s="24"/>
-      <c r="AC233" s="3"/>
-      <c r="AD233" s="3"/>
-      <c r="AE233" s="3"/>
+      <c r="Z233" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA233" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB233" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC233" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD233" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE233" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="234" spans="2:31">
       <c r="B234" s="40">
@@ -19212,12 +19537,24 @@
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
-      <c r="Z234" s="24"/>
-      <c r="AA234" s="24"/>
-      <c r="AB234" s="24"/>
-      <c r="AC234" s="3"/>
-      <c r="AD234" s="3"/>
-      <c r="AE234" s="3"/>
+      <c r="Z234" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA234" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB234" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC234" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD234" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE234" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="235" spans="2:31">
       <c r="B235" s="40">
@@ -19267,12 +19604,24 @@
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
-      <c r="Z235" s="24"/>
-      <c r="AA235" s="24"/>
-      <c r="AB235" s="24"/>
-      <c r="AC235" s="3"/>
-      <c r="AD235" s="3"/>
-      <c r="AE235" s="3"/>
+      <c r="Z235" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA235" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AB235" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AC235" s="106">
+        <v>43277</v>
+      </c>
+      <c r="AD235" s="106">
+        <v>43278</v>
+      </c>
+      <c r="AE235" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="236" spans="2:31">
       <c r="B236" s="40">
@@ -19324,12 +19673,24 @@
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
-      <c r="Z236" s="24"/>
-      <c r="AA236" s="24"/>
-      <c r="AB236" s="24"/>
-      <c r="AC236" s="3"/>
-      <c r="AD236" s="3"/>
-      <c r="AE236" s="3"/>
+      <c r="Z236" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA236" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB236" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC236" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD236" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE236" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="237" spans="2:31">
       <c r="B237" s="40">
@@ -19383,12 +19744,24 @@
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
-      <c r="Z237" s="24"/>
-      <c r="AA237" s="24"/>
-      <c r="AB237" s="24"/>
-      <c r="AC237" s="3"/>
-      <c r="AD237" s="3"/>
-      <c r="AE237" s="3"/>
+      <c r="Z237" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA237" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB237" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC237" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD237" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE237" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="238" spans="2:31">
       <c r="B238" s="40">
@@ -19440,12 +19813,24 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
-      <c r="Z238" s="24"/>
-      <c r="AA238" s="24"/>
-      <c r="AB238" s="24"/>
-      <c r="AC238" s="3"/>
-      <c r="AD238" s="3"/>
-      <c r="AE238" s="3"/>
+      <c r="Z238" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA238" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB238" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC238" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD238" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE238" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="239" spans="2:31">
       <c r="B239" s="40">
@@ -19497,12 +19882,24 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
-      <c r="Z239" s="24"/>
-      <c r="AA239" s="24"/>
-      <c r="AB239" s="24"/>
-      <c r="AC239" s="3"/>
-      <c r="AD239" s="3"/>
-      <c r="AE239" s="3"/>
+      <c r="Z239" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA239" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB239" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC239" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD239" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE239" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="240" spans="2:31">
       <c r="B240" s="40">
@@ -19552,12 +19949,24 @@
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
-      <c r="Z240" s="24"/>
-      <c r="AA240" s="24"/>
-      <c r="AB240" s="24"/>
-      <c r="AC240" s="3"/>
-      <c r="AD240" s="3"/>
-      <c r="AE240" s="3"/>
+      <c r="Z240" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA240" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB240" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC240" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD240" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE240" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="241" spans="1:31">
       <c r="B241" s="40">
@@ -19605,12 +20014,24 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
-      <c r="Z241" s="24"/>
-      <c r="AA241" s="24"/>
-      <c r="AB241" s="24"/>
-      <c r="AC241" s="3"/>
-      <c r="AD241" s="3"/>
-      <c r="AE241" s="3"/>
+      <c r="Z241" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA241" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB241" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC241" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD241" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE241" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="242" spans="1:31">
       <c r="B242" s="40">
@@ -19658,12 +20079,24 @@
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
-      <c r="Z242" s="24"/>
-      <c r="AA242" s="24"/>
-      <c r="AB242" s="24"/>
-      <c r="AC242" s="3"/>
-      <c r="AD242" s="3"/>
-      <c r="AE242" s="3"/>
+      <c r="Z242" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA242" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB242" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC242" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD242" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE242" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="243" spans="1:31">
       <c r="B243" s="40">
@@ -19711,12 +20144,24 @@
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
-      <c r="Z243" s="24"/>
-      <c r="AA243" s="24"/>
-      <c r="AB243" s="24"/>
-      <c r="AC243" s="3"/>
-      <c r="AD243" s="3"/>
-      <c r="AE243" s="3"/>
+      <c r="Z243" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA243" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AB243" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AC243" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AD243" s="106">
+        <v>43279</v>
+      </c>
+      <c r="AE243" s="101" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="244" spans="1:31" s="7" customFormat="1">
       <c r="A244" s="42"/>
@@ -20577,110 +21022,110 @@
   </sheetData>
   <autoFilter ref="C4:M260"/>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="N198:N214"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="T3:Y3"/>
     <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="43" priority="12">
       <formula>$AE5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>$AE5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>$AE6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>$AE6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="39" priority="10">
       <formula>$AE7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>$AE7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>$M113="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113:G113 K113:N113 M102:N114 C5:N111 C215:N299 C114:N175 C176:G214 N176:N198">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="36" priority="25">
       <formula>$M5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:S260">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="35" priority="13">
       <formula>$S5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y260">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="34" priority="15">
       <formula>$Y5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AB7 AE5:AE7 Z8:AE45 Z73:AE75 Z107:AE149 Z156:AE260">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$AE5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46:AE67">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>$AE46="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68:AE72">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$AE68="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z76:AE106">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>$AE76="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:H112 K112:N112">
-    <cfRule type="expression" dxfId="10" priority="23">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>$M112="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112:J113">
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$M112="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z150:AE155">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>$AE150="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:M197 K198:L203 H198:J214 K204:M214">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$M176="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:M203">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$M198="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/document/WBS予定表（AP向け）.xlsx
+++ b/document/WBS予定表（AP向け）.xlsx
@@ -2108,6 +2108,12 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2131,12 +2137,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -2177,154 +2177,7 @@
     <cellStyle name="桁区切り 2 2" xfId="35"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2370,6 +2223,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2830,10 +2690,10 @@
   <dimension ref="A1:AE260"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="99" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="T216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="T213" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA248" sqref="AA248"/>
+      <selection pane="bottomRight" activeCell="A236" sqref="A236:XFD236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2880,61 +2740,61 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="18" customHeight="1">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="113" t="s">
+      <c r="O3" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="114" t="s">
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="114" t="s">
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="116"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="118"/>
     </row>
     <row r="4" spans="2:31" ht="25.5">
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="117"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
@@ -17133,7 +16993,7 @@
       <c r="M198" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N198" s="109" t="s">
+      <c r="N198" s="111" t="s">
         <v>205</v>
       </c>
       <c r="O198" s="45">
@@ -17208,7 +17068,7 @@
       <c r="M199" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N199" s="110"/>
+      <c r="N199" s="112"/>
       <c r="O199" s="45">
         <v>43249</v>
       </c>
@@ -17281,7 +17141,7 @@
       <c r="M200" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N200" s="110"/>
+      <c r="N200" s="112"/>
       <c r="O200" s="45">
         <v>43249</v>
       </c>
@@ -17354,7 +17214,7 @@
       <c r="M201" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N201" s="110"/>
+      <c r="N201" s="112"/>
       <c r="O201" s="45">
         <v>43249</v>
       </c>
@@ -17427,7 +17287,7 @@
       <c r="M202" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N202" s="110"/>
+      <c r="N202" s="112"/>
       <c r="O202" s="45">
         <v>43249</v>
       </c>
@@ -17504,7 +17364,7 @@
       <c r="M203" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="N203" s="110"/>
+      <c r="N203" s="112"/>
       <c r="O203" s="45">
         <v>43249</v>
       </c>
@@ -17577,7 +17437,7 @@
       <c r="M204" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N204" s="110"/>
+      <c r="N204" s="112"/>
       <c r="O204" s="45">
         <v>43249</v>
       </c>
@@ -17650,7 +17510,7 @@
       <c r="M205" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N205" s="110"/>
+      <c r="N205" s="112"/>
       <c r="O205" s="45">
         <v>43249</v>
       </c>
@@ -17723,7 +17583,7 @@
       <c r="M206" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N206" s="110"/>
+      <c r="N206" s="112"/>
       <c r="O206" s="45">
         <v>43249</v>
       </c>
@@ -17798,7 +17658,7 @@
       <c r="M207" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="N207" s="110"/>
+      <c r="N207" s="112"/>
       <c r="O207" s="45">
         <v>43249</v>
       </c>
@@ -17873,7 +17733,7 @@
       <c r="M208" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N208" s="110"/>
+      <c r="N208" s="112"/>
       <c r="O208" s="45">
         <v>43249</v>
       </c>
@@ -17946,7 +17806,7 @@
       <c r="M209" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N209" s="110"/>
+      <c r="N209" s="112"/>
       <c r="O209" s="31">
         <v>43256</v>
       </c>
@@ -18003,7 +17863,7 @@
       <c r="M210" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N210" s="110"/>
+      <c r="N210" s="112"/>
       <c r="O210" s="31">
         <v>43256</v>
       </c>
@@ -18048,7 +17908,7 @@
       <c r="K211" s="61"/>
       <c r="L211" s="61"/>
       <c r="M211" s="56"/>
-      <c r="N211" s="110"/>
+      <c r="N211" s="112"/>
       <c r="O211" s="31"/>
       <c r="P211" s="31"/>
       <c r="Q211" s="48"/>
@@ -18091,7 +17951,7 @@
       <c r="M212" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N212" s="110"/>
+      <c r="N212" s="112"/>
       <c r="O212" s="31">
         <v>43207</v>
       </c>
@@ -18148,7 +18008,7 @@
       <c r="M213" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="N213" s="110"/>
+      <c r="N213" s="112"/>
       <c r="O213" s="31">
         <v>43256</v>
       </c>
@@ -18205,7 +18065,7 @@
       <c r="M214" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N214" s="111"/>
+      <c r="N214" s="113"/>
       <c r="O214" s="31">
         <v>43256</v>
       </c>
@@ -18770,19 +18630,19 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
       <c r="Z222" s="106" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="AA222" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AB222" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AC222" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AD222" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AE222" s="101" t="s">
         <v>22</v>
@@ -18837,19 +18697,19 @@
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
       <c r="Z223" s="106" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="AA223" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AB223" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AC223" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AD223" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AE223" s="101" t="s">
         <v>22</v>
@@ -18908,19 +18768,19 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
       <c r="Z224" s="106" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="AA224" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AB224" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AC224" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AD224" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AE224" s="101" t="s">
         <v>22</v>
@@ -18975,19 +18835,19 @@
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
       <c r="Z225" s="106" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="AA225" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AB225" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AC225" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AD225" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AE225" s="101" t="s">
         <v>22</v>
@@ -19042,19 +18902,19 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
       <c r="Z226" s="106" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="AA226" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AB226" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AC226" s="106">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="AD226" s="106">
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="AE226" s="101" t="s">
         <v>22</v>
@@ -19113,19 +18973,19 @@
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
       <c r="Z227" s="106" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="AA227" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AB227" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AC227" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AD227" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AE227" s="101" t="s">
         <v>22</v>
@@ -19180,19 +19040,19 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
       <c r="Z228" s="106" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="AA228" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AB228" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AC228" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AD228" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AE228" s="101" t="s">
         <v>22</v>
@@ -19251,19 +19111,19 @@
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
       <c r="Z229" s="106" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="AA229" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AB229" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AC229" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AD229" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AE229" s="101" t="s">
         <v>22</v>
@@ -19318,19 +19178,19 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
       <c r="Z230" s="106" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="AA230" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AB230" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AC230" s="106">
-        <v>43279</v>
+        <v>43277</v>
       </c>
       <c r="AD230" s="106">
-        <v>43279</v>
+        <v>43278</v>
       </c>
       <c r="AE230" s="101" t="s">
         <v>22</v>
@@ -21022,110 +20882,110 @@
   </sheetData>
   <autoFilter ref="C4:M260"/>
   <mergeCells count="10">
+    <mergeCell ref="N198:N214"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z3:AE3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="N198:N214"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="Z3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="expression" dxfId="43" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>$AE5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>$AE5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>$AE6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6">
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>$AE6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7">
-    <cfRule type="expression" dxfId="39" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>$AE7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>$AE7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="expression" dxfId="37" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>$M113="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113:G113 K113:N113 M102:N114 C5:N111 C215:N299 C114:N175 C176:G214 N176:N198">
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>$M5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:S260">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$S5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y260">
-    <cfRule type="expression" dxfId="34" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$Y5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AB7 AE5:AE7 Z8:AE45 Z73:AE75 Z107:AE149 Z156:AE260">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$AE5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46:AE67">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$AE46="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z68:AE72">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$AE68="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z76:AE106">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$AE76="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:H112 K112:N112">
-    <cfRule type="expression" dxfId="30" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>$M112="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112:J113">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>$M112="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z150:AE155">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$AE150="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:M197 K198:L203 H198:J214 K204:M214">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$M176="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:M203">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$M198="完了"</formula>
     </cfRule>
   </conditionalFormatting>
